--- a/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9114"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -5571,7 +5571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:G9"/>
     </sheetView>
   </sheetViews>
@@ -10734,8 +10734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:BT98"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BH69" sqref="BH69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9114"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Gear</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>基數+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍範圍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5571,8 +5575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5595,6 +5599,12 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>0.08</v>
+      </c>
       <c r="I2">
         <v>7500</v>
       </c>
@@ -5665,12 +5675,12 @@
         <v>8.0750967994488398</v>
       </c>
       <c r="F4">
-        <f>E4*0.9</f>
-        <v>7.2675871195039559</v>
+        <f>E4*(1-G$2)</f>
+        <v>7.4290890554929332</v>
       </c>
       <c r="G4">
-        <f>E4*1.1</f>
-        <v>8.8826064793937238</v>
+        <f>E4*(1+G$2)</f>
+        <v>8.7211045434047474</v>
       </c>
       <c r="I4">
         <f>I$2/($D4)*$B$14/1000*60</f>
@@ -5712,12 +5722,12 @@
         <v>5.0075083292982461</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="1">E5*0.9</f>
-        <v>4.5067574963684214</v>
+        <f t="shared" ref="F5:F9" si="1">E5*(1-G$2)</f>
+        <v>4.606907662954387</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G9" si="2">E5*1.1</f>
-        <v>5.5082591622280708</v>
+        <f t="shared" ref="G5:G9" si="2">E5*(1+G$2)</f>
+        <v>5.408108995642106</v>
       </c>
       <c r="I5">
         <f>I$2/($D5)*$B$14/1000*60</f>
@@ -5760,11 +5770,11 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.9776408922893443</v>
+        <v>3.0438106898957744</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>3.6393388683536432</v>
+        <v>3.5731690707472135</v>
       </c>
       <c r="I6">
         <f>I$2/($D6)*$B$14/1000*60</f>
@@ -5807,11 +5817,11 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2.1171109686820477</v>
+        <v>2.1641578790972043</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>2.5875800728336142</v>
+        <v>2.5405331624184573</v>
       </c>
       <c r="I7">
         <f>I$2/($D7)*$B$14/1000*60</f>
@@ -5854,11 +5864,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.608628550576954</v>
+        <v>1.6443758517008862</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>1.9661015618162772</v>
+        <v>1.9303542606923447</v>
       </c>
       <c r="I8">
         <f>I$2/($D8)*$B$14/1000*60</f>
@@ -5901,11 +5911,11 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.3024881689792638</v>
+        <v>1.3314323505121362</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>1.591929984307989</v>
+        <v>1.5629858027751165</v>
       </c>
       <c r="I9">
         <f>I$2/($D9)*$B$14/1000*60</f>
@@ -10734,7 +10744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT98"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BH69" sqref="BH69"/>
     </sheetView>
   </sheetViews>

--- a/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9114"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -122,15 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基數-10%</t>
+    <t>容忍範圍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基數+10%</t>
+    <t>基數-T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>容忍範圍</t>
+    <t>基數+T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5575,7 +5575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>0.08</v>
@@ -5635,10 +5635,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -10744,7 +10744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BH69" sqref="BH69"/>
     </sheetView>
   </sheetViews>

--- a/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
@@ -191,7 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -202,7 +202,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -216,21 +230,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -252,20 +252,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3109,11 +3095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="15135104"/>
-        <c:axId val="98393088"/>
+        <c:axId val="194787584"/>
+        <c:axId val="194883968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15135104"/>
+        <c:axId val="194787584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98393088"/>
+        <c:crossAx val="194883968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3150,7 +3136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98393088"/>
+        <c:axId val="194883968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,7 +3166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15135104"/>
+        <c:crossAx val="194787584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5148,11 +5134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284579712"/>
-        <c:axId val="296599936"/>
+        <c:axId val="209139968"/>
+        <c:axId val="209146240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284579712"/>
+        <c:axId val="209139968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5181,7 +5167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296599936"/>
+        <c:crossAx val="209146240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5189,7 +5175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296599936"/>
+        <c:axId val="209146240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284579712"/>
+        <c:crossAx val="209139968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5565,7 +5551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5576,7 +5562,7 @@
   <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5612,10 +5598,10 @@
         <v>1083</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5671,7 +5657,7 @@
         <v>15.256715</v>
       </c>
       <c r="E4">
-        <f>D4/B$14</f>
+        <f t="shared" ref="E4:E9" si="0">D4/B$14</f>
         <v>8.0750967994488398</v>
       </c>
       <c r="F4">
@@ -5683,20 +5669,20 @@
         <v>8.7211045434047474</v>
       </c>
       <c r="I4">
-        <f>I$2/($D4)*$B$14/1000*60</f>
+        <f t="shared" ref="I4:J9" si="1">I$2/($D4)*$B$14/1000*60</f>
         <v>55.726886150852643</v>
       </c>
       <c r="J4">
-        <f>J$2/($D4)*$B$14/1000*60</f>
+        <f t="shared" si="1"/>
         <v>8.0469623601831213</v>
       </c>
       <c r="K4">
-        <f>K$2*$D4/$B$14*1000/60</f>
-        <v>2153.3591465196905</v>
+        <f t="shared" ref="K4:K9" si="2">K$2*$D4/$B$14*1000/60</f>
+        <v>14804.344132322873</v>
       </c>
       <c r="L4">
         <f>L$2*E4*1000/60</f>
-        <v>942.09462660236454</v>
+        <v>17496.043065472488</v>
       </c>
       <c r="M4">
         <f>L4*60/1000/L$2</f>
@@ -5714,39 +5700,39 @@
         <v>3.895</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D9" si="0">B5*C5</f>
+        <f t="shared" ref="D5:D9" si="3">B5*C5</f>
         <v>9.4609550000000002</v>
       </c>
       <c r="E5">
-        <f>D5/B$14</f>
+        <f t="shared" si="0"/>
         <v>5.0075083292982461</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="1">E5*(1-G$2)</f>
+        <f t="shared" ref="F5:F9" si="4">E5*(1-G$2)</f>
         <v>4.606907662954387</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G9" si="2">E5*(1+G$2)</f>
+        <f t="shared" ref="G5:G9" si="5">E5*(1+G$2)</f>
         <v>5.408108995642106</v>
       </c>
       <c r="I5">
-        <f>I$2/($D5)*$B$14/1000*60</f>
+        <f t="shared" si="1"/>
         <v>89.865052718357262</v>
       </c>
       <c r="J5">
-        <f>J$2/($D5)*$B$14/1000*60</f>
+        <f t="shared" si="1"/>
         <v>12.976513612530789</v>
       </c>
       <c r="K5">
-        <f>K$2*$D5/$B$14*1000/60</f>
-        <v>1335.3355544795324</v>
+        <f t="shared" si="2"/>
+        <v>9180.4319370467856</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L9" si="3">L$2*E5*1000/60</f>
-        <v>584.20930508479546</v>
+        <f t="shared" ref="L5:L9" si="6">L$2*E5*1000/60</f>
+        <v>10849.6013801462</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M9" si="4">L5*60/1000/L$2</f>
+        <f t="shared" ref="M5:M9" si="7">L5*60/1000/L$2</f>
         <v>5.0075083292982461</v>
       </c>
     </row>
@@ -5761,40 +5747,40 @@
         <v>4.3529999999999998</v>
       </c>
       <c r="D6">
+        <f t="shared" si="3"/>
+        <v>6.250907999999999</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>6.250907999999999</v>
-      </c>
-      <c r="E6">
-        <f>D6/B$14</f>
         <v>3.3084898803214937</v>
       </c>
       <c r="F6">
+        <f t="shared" si="4"/>
+        <v>3.0438106898957744</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>3.5731690707472135</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>3.0438106898957744</v>
-      </c>
-      <c r="G6">
+        <v>136.01371510203089</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>19.640380460733265</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>3.5731690707472135</v>
-      </c>
-      <c r="I6">
-        <f>I$2/($D6)*$B$14/1000*60</f>
-        <v>136.01371510203089</v>
-      </c>
-      <c r="J6">
-        <f>J$2/($D6)*$B$14/1000*60</f>
-        <v>19.640380460733265</v>
-      </c>
-      <c r="K6">
-        <f>K$2*$D6/$B$14*1000/60</f>
-        <v>882.26396808573168</v>
+        <v>6065.564780589405</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
-        <v>385.99048603750754</v>
+        <f t="shared" si="6"/>
+        <v>7168.3947406965699</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
-        <v>3.3084898803214933</v>
+        <f t="shared" si="7"/>
+        <v>3.3084898803214937</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5808,39 +5794,39 @@
         <v>4.3529999999999998</v>
       </c>
       <c r="D7">
+        <f t="shared" si="3"/>
+        <v>4.4444129999999991</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.4444129999999991</v>
-      </c>
-      <c r="E7">
-        <f>D7/B$14</f>
         <v>2.3523455207578308</v>
       </c>
       <c r="F7">
+        <f t="shared" si="4"/>
+        <v>2.1641578790972043</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>2.5405331624184573</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>2.1641578790972043</v>
-      </c>
-      <c r="G7">
+        <v>191.29842790060371</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>27.623492988847175</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>2.5405331624184573</v>
-      </c>
-      <c r="I7">
-        <f>I$2/($D7)*$B$14/1000*60</f>
-        <v>191.29842790060371</v>
-      </c>
-      <c r="J7">
-        <f>J$2/($D7)*$B$14/1000*60</f>
-        <v>27.623492988847175</v>
-      </c>
-      <c r="K7">
-        <f>K$2*$D7/$B$14*1000/60</f>
-        <v>627.29213886875493</v>
+        <v>4312.6334547226888</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>274.4403107550803</v>
+        <f t="shared" si="6"/>
+        <v>5096.7486283086337</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3523455207578308</v>
       </c>
     </row>
@@ -5855,39 +5841,39 @@
         <v>3.895</v>
       </c>
       <c r="D8">
+        <f t="shared" si="3"/>
+        <v>3.3769649999999998</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.3769649999999998</v>
-      </c>
-      <c r="E8">
-        <f>D8/B$14</f>
         <v>1.7873650561966155</v>
       </c>
       <c r="F8">
+        <f t="shared" si="4"/>
+        <v>1.6443758517008862</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>1.9303542606923447</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.6443758517008862</v>
-      </c>
-      <c r="G8">
+        <v>251.76725842317165</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>36.355192116305986</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>1.9303542606923447</v>
-      </c>
-      <c r="I8">
-        <f>I$2/($D8)*$B$14/1000*60</f>
-        <v>251.76725842317165</v>
-      </c>
-      <c r="J8">
-        <f>J$2/($D8)*$B$14/1000*60</f>
-        <v>36.355192116305986</v>
-      </c>
-      <c r="K8">
-        <f>K$2*$D8/$B$14*1000/60</f>
-        <v>476.63068165243078</v>
+        <v>3276.8359363604618</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
-        <v>208.5259232229385</v>
+        <f t="shared" si="6"/>
+        <v>3872.624288426</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7873650561966155</v>
       </c>
     </row>
@@ -5902,39 +5888,39 @@
         <v>3.895</v>
       </c>
       <c r="D9">
+        <f t="shared" si="3"/>
+        <v>2.7342899999999997</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.7342899999999997</v>
-      </c>
-      <c r="E9">
-        <f>D9/B$14</f>
         <v>1.4472090766436263</v>
       </c>
       <c r="F9">
+        <f t="shared" si="4"/>
+        <v>1.3314323505121362</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>1.5629858027751165</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>1.3314323505121362</v>
-      </c>
-      <c r="G9">
+        <v>310.94332343716496</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>44.900215904326622</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>1.5629858027751165</v>
-      </c>
-      <c r="I9">
-        <f>I$2/($D9)*$B$14/1000*60</f>
-        <v>310.94332343716496</v>
-      </c>
-      <c r="J9">
-        <f>J$2/($D9)*$B$14/1000*60</f>
-        <v>44.900215904326622</v>
-      </c>
-      <c r="K9">
-        <f>K$2*$D9/$B$14*1000/60</f>
-        <v>385.92242043830032</v>
+        <v>2653.2166405133153</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
-        <v>168.84105894175642</v>
+        <f t="shared" si="6"/>
+        <v>3135.6196660611904</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4472090766436263</v>
       </c>
     </row>
@@ -6079,27 +6065,27 @@
         <v>600</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B95" si="5">$A32/$E$4/1000*60</f>
+        <f t="shared" ref="B32:B95" si="8">$A32/$E$4/1000*60</f>
         <v>4.4581508920682102</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C95" si="6">$A32/$E$5/1000*60</f>
+        <f t="shared" ref="C32:C95" si="9">$A32/$E$5/1000*60</f>
         <v>7.189204217468582</v>
       </c>
       <c r="D32">
-        <f t="shared" ref="D32:D95" si="7">$A32/$E$6/1000*60</f>
+        <f t="shared" ref="D32:D95" si="10">$A32/$E$6/1000*60</f>
         <v>10.881097208162473</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:E95" si="8">$A32/$E$7/1000*60</f>
+        <f t="shared" ref="E32:E95" si="11">$A32/$E$7/1000*60</f>
         <v>15.303874232048297</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G95" si="9">$A32/$E$8/1000*60</f>
+        <f t="shared" ref="G32:G95" si="12">$A32/$E$8/1000*60</f>
         <v>20.141380673853732</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I95" si="10">$A32/$E$9/1000*60</f>
+        <f t="shared" ref="I32:I95" si="13">$A32/$E$9/1000*60</f>
         <v>24.875465874973202</v>
       </c>
       <c r="K32">
@@ -6110,23 +6096,23 @@
         <v>269.16989331496131</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M95" si="11">$K32*$E$5*1000/60</f>
+        <f t="shared" ref="M32:M95" si="14">$K32*$E$5*1000/60</f>
         <v>166.91694430994156</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N95" si="12">$K32*$E$6*1000/60</f>
+        <f t="shared" ref="N32:N95" si="15">$K32*$E$6*1000/60</f>
         <v>110.28299601071646</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:O95" si="13">$K32*$E$7*1000/60</f>
+        <f t="shared" ref="O32:O95" si="16">$K32*$E$7*1000/60</f>
         <v>78.411517358594367</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P95" si="14">$K32*$E$8*1000/60</f>
+        <f t="shared" ref="P32:P95" si="17">$K32*$E$8*1000/60</f>
         <v>59.578835206553848</v>
       </c>
       <c r="Q32">
-        <f t="shared" ref="Q32:Q95" si="15">$K32*$E$9*1000/60</f>
+        <f t="shared" ref="Q32:Q95" si="18">$K32*$E$9*1000/60</f>
         <v>48.24030255478754</v>
       </c>
     </row>
@@ -6135,54 +6121,54 @@
         <v>700</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.2011760407462466</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.3874049203800123</v>
       </c>
       <c r="D33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12.694613409522885</v>
       </c>
       <c r="E33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17.854519937389682</v>
       </c>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>23.498277452829356</v>
       </c>
       <c r="I33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>29.021376854135397</v>
       </c>
       <c r="K33">
         <v>4</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:L96" si="16">$K33*$E$4*1000/60</f>
+        <f t="shared" ref="L33:L96" si="19">$K33*$E$4*1000/60</f>
         <v>538.33978662992263</v>
       </c>
       <c r="M33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>333.83388861988311</v>
       </c>
       <c r="N33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>220.56599202143292</v>
       </c>
       <c r="O33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>156.82303471718873</v>
       </c>
       <c r="P33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>119.1576704131077</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>96.48060510957508</v>
       </c>
     </row>
@@ -6191,54 +6177,54 @@
         <v>800</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.9442011894242812</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.5856056232914408</v>
       </c>
       <c r="D34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14.508129610883298</v>
       </c>
       <c r="E34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>20.405165642731063</v>
       </c>
       <c r="G34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>26.855174231804977</v>
       </c>
       <c r="I34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>33.1672878332976</v>
       </c>
       <c r="K34">
         <v>6</v>
       </c>
       <c r="L34">
+        <f t="shared" si="19"/>
+        <v>807.50967994488394</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="14"/>
+        <v>500.75083292982458</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="15"/>
+        <v>330.84898803214935</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="16"/>
-        <v>807.50967994488394</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="11"/>
-        <v>500.75083292982458</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="12"/>
-        <v>330.84898803214935</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="13"/>
         <v>235.23455207578306</v>
       </c>
       <c r="P34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>178.73650561966153</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>144.72090766436261</v>
       </c>
     </row>
@@ -6247,54 +6233,54 @@
         <v>900</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.6872263381023158</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.783806326202871</v>
       </c>
       <c r="D35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16.321645812243709</v>
       </c>
       <c r="E35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22.955811348072448</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>30.212071010780598</v>
       </c>
       <c r="I35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>37.313198812459802</v>
       </c>
       <c r="K35">
         <v>8</v>
       </c>
       <c r="L35">
+        <f t="shared" si="19"/>
+        <v>1076.6795732598453</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="14"/>
+        <v>667.66777723976622</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="15"/>
+        <v>441.13198404286584</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="16"/>
-        <v>1076.6795732598453</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="11"/>
-        <v>667.66777723976622</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="12"/>
-        <v>441.13198404286584</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="13"/>
         <v>313.64606943437747</v>
       </c>
       <c r="P35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>238.31534082621539</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>192.96121021915016</v>
       </c>
     </row>
@@ -6303,54 +6289,54 @@
         <v>1000</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.4302514867803513</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.982007029114301</v>
       </c>
       <c r="D36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>18.135162013604123</v>
       </c>
       <c r="E36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25.506457053413829</v>
       </c>
       <c r="G36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>33.568967789756222</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>41.459109791622005</v>
       </c>
       <c r="K36">
         <v>10</v>
       </c>
       <c r="L36">
+        <f t="shared" si="19"/>
+        <v>1345.8494665748069</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="14"/>
+        <v>834.58472154970764</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="15"/>
+        <v>551.41498005358233</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="16"/>
-        <v>1345.8494665748069</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="11"/>
-        <v>834.58472154970764</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="12"/>
-        <v>551.41498005358233</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="13"/>
         <v>392.05758679297179</v>
       </c>
       <c r="P36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>297.89417603276922</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>241.20151277393774</v>
       </c>
     </row>
@@ -6359,54 +6345,54 @@
         <v>1100</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1732766354583859</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13.180207732025734</v>
       </c>
       <c r="D37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19.948678214964534</v>
       </c>
       <c r="E37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28.057102758755214</v>
       </c>
       <c r="G37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>36.925864568731846</v>
       </c>
       <c r="I37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>45.605020770784201</v>
       </c>
       <c r="K37">
         <v>12</v>
       </c>
       <c r="L37">
+        <f t="shared" si="19"/>
+        <v>1615.0193598897679</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>1001.5016658596492</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="15"/>
+        <v>661.6979760642987</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="16"/>
-        <v>1615.0193598897679</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="11"/>
-        <v>1001.5016658596492</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="12"/>
-        <v>661.6979760642987</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="13"/>
         <v>470.46910415156611</v>
       </c>
       <c r="P37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>357.47301123932306</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>289.44181532872523</v>
       </c>
     </row>
@@ -6415,54 +6401,54 @@
         <v>1200</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9163017841364205</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.378408434937164</v>
       </c>
       <c r="D38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>21.762194416324945</v>
       </c>
       <c r="E38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>30.607748464096595</v>
       </c>
       <c r="G38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>40.282761347707464</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>49.750931749946403</v>
       </c>
       <c r="K38">
         <v>14</v>
       </c>
       <c r="L38">
+        <f t="shared" si="19"/>
+        <v>1884.1892532047291</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="14"/>
+        <v>1168.4186101695909</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>771.98097207501507</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="16"/>
-        <v>1884.1892532047291</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="11"/>
-        <v>1168.4186101695909</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="12"/>
-        <v>771.98097207501507</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="13"/>
         <v>548.88062151016061</v>
       </c>
       <c r="P38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>417.051846445877</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>337.68211788351283</v>
       </c>
     </row>
@@ -6471,54 +6457,54 @@
         <v>1300</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.6593269328144551</v>
       </c>
       <c r="C39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15.576609137848592</v>
       </c>
       <c r="D39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>23.57571061768536</v>
       </c>
       <c r="E39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>33.158394169437976</v>
       </c>
       <c r="G39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>43.639658126683088</v>
       </c>
       <c r="I39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>53.896842729108606</v>
       </c>
       <c r="K39">
         <v>16</v>
       </c>
       <c r="L39">
+        <f t="shared" si="19"/>
+        <v>2153.3591465196905</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="14"/>
+        <v>1335.3355544795324</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="15"/>
+        <v>882.26396808573168</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="16"/>
-        <v>2153.3591465196905</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="11"/>
-        <v>1335.3355544795324</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="12"/>
-        <v>882.26396808573168</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="13"/>
         <v>627.29213886875493</v>
       </c>
       <c r="P39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>476.63068165243078</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>385.92242043830032</v>
       </c>
     </row>
@@ -6527,54 +6513,54 @@
         <v>1400</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.402352081492493</v>
       </c>
       <c r="C40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.774809840760025</v>
       </c>
       <c r="D40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25.389226819045771</v>
       </c>
       <c r="E40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>35.709039874779364</v>
       </c>
       <c r="G40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>46.996554905658712</v>
       </c>
       <c r="I40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>58.042753708270794</v>
       </c>
       <c r="K40">
         <v>18</v>
       </c>
       <c r="L40">
+        <f t="shared" si="19"/>
+        <v>2422.5290398346524</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="14"/>
+        <v>1502.2524987894737</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="15"/>
+        <v>992.54696409644816</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="16"/>
-        <v>2422.5290398346524</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="11"/>
-        <v>1502.2524987894737</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="12"/>
-        <v>992.54696409644816</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="13"/>
         <v>705.70365622734926</v>
       </c>
       <c r="P40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>536.20951685898456</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>434.16272299308787</v>
       </c>
     </row>
@@ -6583,54 +6569,54 @@
         <v>1500</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.145377230170528</v>
       </c>
       <c r="C41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17.973010543671453</v>
       </c>
       <c r="D41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27.202743020406185</v>
       </c>
       <c r="E41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>38.259685580120745</v>
       </c>
       <c r="G41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50.353451684634329</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>62.18866468743299</v>
       </c>
       <c r="K41">
         <v>20</v>
       </c>
       <c r="L41">
+        <f t="shared" si="19"/>
+        <v>2691.6989331496138</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="14"/>
+        <v>1669.1694430994153</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="15"/>
+        <v>1102.8299601071647</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="16"/>
-        <v>2691.6989331496138</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="11"/>
-        <v>1669.1694430994153</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="12"/>
-        <v>1102.8299601071647</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="13"/>
         <v>784.11517358594358</v>
       </c>
       <c r="P41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>595.78835206553845</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>482.40302554787547</v>
       </c>
     </row>
@@ -6639,54 +6625,54 @@
         <v>1600</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.888402378848562</v>
       </c>
       <c r="C42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19.171211246582882</v>
       </c>
       <c r="D42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>29.016259221766596</v>
       </c>
       <c r="E42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40.810331285462127</v>
       </c>
       <c r="G42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>53.710348463609954</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>66.3345756665952</v>
       </c>
       <c r="K42">
         <v>22</v>
       </c>
       <c r="L42">
+        <f t="shared" si="19"/>
+        <v>2960.8688264645743</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="14"/>
+        <v>1836.0863874093568</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="15"/>
+        <v>1213.1129561178811</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="16"/>
-        <v>2960.8688264645743</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="11"/>
-        <v>1836.0863874093568</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="12"/>
-        <v>1213.1129561178811</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="13"/>
         <v>862.5266909445379</v>
       </c>
       <c r="P42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>655.36718727209234</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>530.64332810266296</v>
       </c>
     </row>
@@ -6695,54 +6681,54 @@
         <v>1700</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.631427527526597</v>
       </c>
       <c r="C43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20.369411949494314</v>
       </c>
       <c r="D43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>30.82977542312701</v>
       </c>
       <c r="E43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43.360976990803508</v>
       </c>
       <c r="G43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>57.067245242585578</v>
       </c>
       <c r="I43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>70.480486645757409</v>
       </c>
       <c r="K43">
         <v>24</v>
       </c>
       <c r="L43">
+        <f t="shared" si="19"/>
+        <v>3230.0387197795358</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="14"/>
+        <v>2003.0033317192983</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="15"/>
+        <v>1323.3959521285974</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="16"/>
-        <v>3230.0387197795358</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="11"/>
-        <v>2003.0033317192983</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="12"/>
-        <v>1323.3959521285974</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="13"/>
         <v>940.93820830313223</v>
       </c>
       <c r="P43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>714.94602247864611</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>578.88363065745045</v>
       </c>
     </row>
@@ -6751,54 +6737,54 @@
         <v>1800</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13.374452676204632</v>
       </c>
       <c r="C44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21.567612652405742</v>
       </c>
       <c r="D44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32.643291624487418</v>
       </c>
       <c r="E44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45.911622696144896</v>
       </c>
       <c r="G44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>60.424142021561195</v>
       </c>
       <c r="I44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>74.626397624919605</v>
       </c>
       <c r="K44">
         <v>26</v>
       </c>
       <c r="L44">
+        <f t="shared" si="19"/>
+        <v>3499.2086130944972</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="14"/>
+        <v>2169.9202760292401</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="15"/>
+        <v>1433.6789481393139</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="16"/>
-        <v>3499.2086130944972</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="11"/>
-        <v>2169.9202760292401</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="12"/>
-        <v>1433.6789481393139</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="13"/>
         <v>1019.3497256617267</v>
       </c>
       <c r="P44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>774.52485768520012</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>627.12393321223806</v>
       </c>
     </row>
@@ -6807,54 +6793,54 @@
         <v>1900</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14.117477824882668</v>
       </c>
       <c r="C45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22.765813355317174</v>
       </c>
       <c r="D45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>34.456807825847832</v>
       </c>
       <c r="E45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>48.462268401486277</v>
       </c>
       <c r="G45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>63.781038800536813</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>78.7723086040818</v>
       </c>
       <c r="K45">
         <v>28</v>
       </c>
       <c r="L45">
+        <f t="shared" si="19"/>
+        <v>3768.3785064094582</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="14"/>
+        <v>2336.8372203391818</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="15"/>
+        <v>1543.9619441500301</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="16"/>
-        <v>3768.3785064094582</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="11"/>
-        <v>2336.8372203391818</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="12"/>
-        <v>1543.9619441500301</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="13"/>
         <v>1097.7612430203212</v>
       </c>
       <c r="P45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>834.10369289175401</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>675.36423576702566</v>
       </c>
     </row>
@@ -6863,54 +6849,54 @@
         <v>2000</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14.860502973560703</v>
       </c>
       <c r="C46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23.964014058228603</v>
       </c>
       <c r="D46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.270324027208247</v>
       </c>
       <c r="E46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>51.012914106827658</v>
       </c>
       <c r="G46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>67.137935579512444</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>82.91821958324401</v>
       </c>
       <c r="K46">
         <v>30</v>
       </c>
       <c r="L46">
+        <f t="shared" si="19"/>
+        <v>4037.5483997244201</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="14"/>
+        <v>2503.7541646491231</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="15"/>
+        <v>1654.2449401607469</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="16"/>
-        <v>4037.5483997244201</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="11"/>
-        <v>2503.7541646491231</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="12"/>
-        <v>1654.2449401607469</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="13"/>
         <v>1176.1727603789154</v>
       </c>
       <c r="P46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>893.68252809830778</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>723.60453832181315</v>
       </c>
     </row>
@@ -6919,54 +6905,54 @@
         <v>2100</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15.603528122238737</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25.162214761140032</v>
       </c>
       <c r="D47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>38.083840228568654</v>
       </c>
       <c r="E47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>53.563559812169039</v>
       </c>
       <c r="G47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>70.494832358488054</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>87.064130562406191</v>
       </c>
       <c r="K47">
         <v>32</v>
       </c>
       <c r="L47">
+        <f t="shared" si="19"/>
+        <v>4306.718293039381</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="14"/>
+        <v>2670.6711089590649</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>1764.5279361714634</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="16"/>
-        <v>4306.718293039381</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="11"/>
-        <v>2670.6711089590649</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="12"/>
-        <v>1764.5279361714634</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="13"/>
         <v>1254.5842777375099</v>
       </c>
       <c r="P47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>953.26136330486156</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>771.84484087660064</v>
       </c>
     </row>
@@ -6975,54 +6961,54 @@
         <v>2200</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16.346553270916772</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.360415464051467</v>
       </c>
       <c r="D48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39.897356429929069</v>
       </c>
       <c r="E48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>56.114205517510428</v>
       </c>
       <c r="G48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>73.851729137463693</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>91.210041541568401</v>
       </c>
       <c r="K48">
         <v>34</v>
       </c>
       <c r="L48">
+        <f t="shared" si="19"/>
+        <v>4575.888186354342</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>2837.5880532690062</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>1874.8109321821798</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="16"/>
-        <v>4575.888186354342</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="11"/>
-        <v>2837.5880532690062</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="12"/>
-        <v>1874.8109321821798</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="13"/>
         <v>1332.9957950961041</v>
       </c>
       <c r="P48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1012.8401985114155</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>820.08514343138825</v>
       </c>
     </row>
@@ -7031,54 +7017,54 @@
         <v>2300</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.089578419594808</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27.558616166962896</v>
       </c>
       <c r="D49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41.710872631289483</v>
       </c>
       <c r="E49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>58.664851222851809</v>
       </c>
       <c r="G49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>77.208625916439303</v>
       </c>
       <c r="I49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95.355952520730597</v>
       </c>
       <c r="K49">
         <v>36</v>
       </c>
       <c r="L49">
+        <f t="shared" si="19"/>
+        <v>4845.0580796693048</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="14"/>
+        <v>3004.5049975789475</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>1985.0939281928963</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="16"/>
-        <v>4845.0580796693048</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="11"/>
-        <v>3004.5049975789475</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="12"/>
-        <v>1985.0939281928963</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="13"/>
         <v>1411.4073124546985</v>
       </c>
       <c r="P49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1072.4190337179691</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>868.32544598617574</v>
       </c>
     </row>
@@ -7087,54 +7073,54 @@
         <v>2400</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.832603568272841</v>
       </c>
       <c r="C50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28.756816869874328</v>
       </c>
       <c r="D50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43.52438883264989</v>
       </c>
       <c r="E50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>61.21549692819319</v>
       </c>
       <c r="G50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>80.565522695414927</v>
       </c>
       <c r="I50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>99.501863499892806</v>
       </c>
       <c r="K50">
         <v>38</v>
       </c>
       <c r="L50">
+        <f t="shared" si="19"/>
+        <v>5114.2279729842658</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="14"/>
+        <v>3171.4219418888893</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>2095.3769242036128</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="16"/>
-        <v>5114.2279729842658</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="11"/>
-        <v>3171.4219418888893</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="12"/>
-        <v>2095.3769242036128</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="13"/>
         <v>1489.818829813293</v>
       </c>
       <c r="P50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1131.9978689245231</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>916.56574854096334</v>
       </c>
     </row>
@@ -7143,54 +7129,54 @@
         <v>2500</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18.575628716950881</v>
       </c>
       <c r="C51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>29.955017572785756</v>
       </c>
       <c r="D51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>45.337905034010305</v>
       </c>
       <c r="E51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>63.766142633534585</v>
       </c>
       <c r="G51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>83.922419474390551</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>103.647774479055</v>
       </c>
       <c r="K51">
         <v>40</v>
       </c>
       <c r="L51">
+        <f t="shared" si="19"/>
+        <v>5383.3978662992276</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="14"/>
+        <v>3338.3388861988306</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>2205.6599202143293</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="16"/>
-        <v>5383.3978662992276</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="11"/>
-        <v>3338.3388861988306</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="12"/>
-        <v>2205.6599202143293</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="13"/>
         <v>1568.2303471718872</v>
       </c>
       <c r="P51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1191.5767041310769</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>964.80605109575095</v>
       </c>
     </row>
@@ -7199,54 +7185,54 @@
         <v>2600</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19.31865386562891</v>
       </c>
       <c r="C52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31.153218275697185</v>
       </c>
       <c r="D52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>47.151421235370719</v>
       </c>
       <c r="E52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>66.316788338875952</v>
       </c>
       <c r="G52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>87.279316253366176</v>
       </c>
       <c r="I52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>107.79368545821721</v>
       </c>
       <c r="K52">
         <v>42</v>
       </c>
       <c r="L52">
+        <f t="shared" si="19"/>
+        <v>5652.5677596141877</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="14"/>
+        <v>3505.2558305087723</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="15"/>
+        <v>2315.9429162250458</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="16"/>
-        <v>5652.5677596141877</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="11"/>
-        <v>3505.2558305087723</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="12"/>
-        <v>2315.9429162250458</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="13"/>
         <v>1646.6418645304814</v>
       </c>
       <c r="P52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1251.1555393376307</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1013.0463536505383</v>
       </c>
     </row>
@@ -7255,54 +7241,54 @@
         <v>2700</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20.06167901430695</v>
       </c>
       <c r="C53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32.351418978608613</v>
       </c>
       <c r="D53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>48.964937436731134</v>
       </c>
       <c r="E53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>68.867434044217347</v>
       </c>
       <c r="G53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>90.636213032341786</v>
       </c>
       <c r="I53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111.93959643737939</v>
       </c>
       <c r="K53">
         <v>44</v>
       </c>
       <c r="L53">
+        <f t="shared" si="19"/>
+        <v>5921.7376529291487</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="14"/>
+        <v>3672.1727748187136</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="15"/>
+        <v>2426.2259122357623</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="16"/>
-        <v>5921.7376529291487</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="11"/>
-        <v>3672.1727748187136</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="12"/>
-        <v>2426.2259122357623</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="13"/>
         <v>1725.0533818890758</v>
       </c>
       <c r="P53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1310.7343745441847</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1061.2866562053259</v>
       </c>
     </row>
@@ -7311,54 +7297,54 @@
         <v>2800</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20.804704162984986</v>
       </c>
       <c r="C54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>33.549619681520049</v>
       </c>
       <c r="D54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>50.778453638091541</v>
       </c>
       <c r="E54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>71.418079749558729</v>
       </c>
       <c r="G54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>93.993109811317424</v>
       </c>
       <c r="I54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>116.08550741654159</v>
       </c>
       <c r="K54">
         <v>46</v>
       </c>
       <c r="L54">
+        <f t="shared" si="19"/>
+        <v>6190.9075462441106</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="14"/>
+        <v>3839.0897191286558</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="15"/>
+        <v>2536.5089082464788</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="16"/>
-        <v>6190.9075462441106</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="11"/>
-        <v>3839.0897191286558</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="12"/>
-        <v>2536.5089082464788</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="13"/>
         <v>1803.46489924767</v>
       </c>
       <c r="P54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1370.3132097507385</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1109.5269587601135</v>
       </c>
     </row>
@@ -7367,54 +7353,54 @@
         <v>2900</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21.547729311663019</v>
       </c>
       <c r="C55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>34.747820384431478</v>
       </c>
       <c r="D55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>52.591969839451956</v>
       </c>
       <c r="E55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>73.96872545490011</v>
       </c>
       <c r="G55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>97.350006590293034</v>
       </c>
       <c r="I55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>120.23141839570381</v>
       </c>
       <c r="K55">
         <v>48</v>
       </c>
       <c r="L55">
+        <f t="shared" si="19"/>
+        <v>6460.0774395590715</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="14"/>
+        <v>4006.0066634385967</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="15"/>
+        <v>2646.7919042571948</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="16"/>
-        <v>6460.0774395590715</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="11"/>
-        <v>4006.0066634385967</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="12"/>
-        <v>2646.7919042571948</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="13"/>
         <v>1881.8764166062645</v>
       </c>
       <c r="P55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1429.8920449572922</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1157.7672613149009</v>
       </c>
     </row>
@@ -7423,54 +7409,54 @@
         <v>3000</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22.290754460341056</v>
       </c>
       <c r="C56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35.946021087342906</v>
       </c>
       <c r="D56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>54.40548604081237</v>
       </c>
       <c r="E56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76.519371160241491</v>
       </c>
       <c r="G56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>100.70690336926866</v>
       </c>
       <c r="I56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>124.37732937486598</v>
       </c>
       <c r="K56">
         <v>50</v>
       </c>
       <c r="L56">
+        <f t="shared" si="19"/>
+        <v>6729.2473328740325</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="14"/>
+        <v>4172.9236077485384</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="15"/>
+        <v>2757.0749002679108</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="16"/>
-        <v>6729.2473328740325</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="11"/>
-        <v>4172.9236077485384</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="12"/>
-        <v>2757.0749002679108</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="13"/>
         <v>1960.2879339648591</v>
       </c>
       <c r="P56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1489.4708801638465</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1206.0075638696885</v>
       </c>
     </row>
@@ -7479,54 +7465,54 @@
         <v>3100</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23.033779609019088</v>
       </c>
       <c r="C57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>37.144221790254335</v>
       </c>
       <c r="D57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>56.219002242172778</v>
       </c>
       <c r="E57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>79.070016865582872</v>
       </c>
       <c r="G57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>104.06380014824428</v>
       </c>
       <c r="I57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>128.52324035402822</v>
       </c>
       <c r="K57">
         <v>52</v>
       </c>
       <c r="L57">
+        <f t="shared" si="19"/>
+        <v>6998.4172261889944</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="14"/>
+        <v>4339.8405520584802</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="15"/>
+        <v>2867.3578962786278</v>
+      </c>
+      <c r="O57">
         <f t="shared" si="16"/>
-        <v>6998.4172261889944</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="11"/>
-        <v>4339.8405520584802</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="12"/>
-        <v>2867.3578962786278</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="13"/>
         <v>2038.6994513234533</v>
       </c>
       <c r="P57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1549.0497153704002</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1254.2478664244761</v>
       </c>
     </row>
@@ -7535,54 +7521,54 @@
         <v>3200</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23.776804757697125</v>
       </c>
       <c r="C58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>38.342422493165763</v>
       </c>
       <c r="D58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>58.032518443533192</v>
       </c>
       <c r="E58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>81.620662570924253</v>
       </c>
       <c r="G58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>107.42069692721991</v>
       </c>
       <c r="I58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>132.6691513331904</v>
       </c>
       <c r="K58">
         <v>54</v>
       </c>
       <c r="L58">
+        <f t="shared" si="19"/>
+        <v>7267.5871195039554</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="14"/>
+        <v>4506.757496368421</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="15"/>
+        <v>2977.6408922893443</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="16"/>
-        <v>7267.5871195039554</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="11"/>
-        <v>4506.757496368421</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="12"/>
-        <v>2977.6408922893443</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="13"/>
         <v>2117.1109686820478</v>
       </c>
       <c r="P58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1608.628550576954</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1302.4881689792637</v>
       </c>
     </row>
@@ -7591,54 +7577,54 @@
         <v>3300</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24.519829906375158</v>
       </c>
       <c r="C59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>39.540623196077199</v>
       </c>
       <c r="D59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>59.846034644893606</v>
       </c>
       <c r="E59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>84.171308276265648</v>
       </c>
       <c r="G59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>110.77759370619552</v>
       </c>
       <c r="I59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>136.81506231235261</v>
       </c>
       <c r="K59">
         <v>56</v>
       </c>
       <c r="L59">
+        <f t="shared" si="19"/>
+        <v>7536.7570128189163</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="14"/>
+        <v>4673.6744406783637</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="15"/>
+        <v>3087.9238883000603</v>
+      </c>
+      <c r="O59">
         <f t="shared" si="16"/>
-        <v>7536.7570128189163</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="11"/>
-        <v>4673.6744406783637</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="12"/>
-        <v>3087.9238883000603</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="13"/>
         <v>2195.5224860406424</v>
       </c>
       <c r="P59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1668.207385783508</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1350.7284715340513</v>
       </c>
     </row>
@@ -7647,54 +7633,54 @@
         <v>3400</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25.262855055053194</v>
       </c>
       <c r="C60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40.738823898988628</v>
       </c>
       <c r="D60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>61.659550846254021</v>
       </c>
       <c r="E60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>86.721953981607015</v>
       </c>
       <c r="G60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>114.13449048517116</v>
       </c>
       <c r="I60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>140.96097329151482</v>
       </c>
       <c r="K60">
         <v>58</v>
       </c>
       <c r="L60">
+        <f t="shared" si="19"/>
+        <v>7805.9269061338791</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="14"/>
+        <v>4840.5913849883045</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="15"/>
+        <v>3198.2068843107772</v>
+      </c>
+      <c r="O60">
         <f t="shared" si="16"/>
-        <v>7805.9269061338791</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="11"/>
-        <v>4840.5913849883045</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="12"/>
-        <v>3198.2068843107772</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="13"/>
         <v>2273.9340033992362</v>
       </c>
       <c r="P60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1727.7862209900618</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1398.9687740888389</v>
       </c>
     </row>
@@ -7703,54 +7689,54 @@
         <v>3500</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26.00588020373123</v>
       </c>
       <c r="C61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>41.937024601900056</v>
       </c>
       <c r="D61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>63.473067047614421</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>89.272599686948411</v>
       </c>
       <c r="G61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>117.49138726414677</v>
       </c>
       <c r="I61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>145.10688427067703</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61">
+        <f t="shared" si="19"/>
+        <v>8075.0967994488401</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="14"/>
+        <v>5007.5083292982463</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="15"/>
+        <v>3308.4898803214937</v>
+      </c>
+      <c r="O61">
         <f t="shared" si="16"/>
-        <v>8075.0967994488401</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="11"/>
-        <v>5007.5083292982463</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="12"/>
-        <v>3308.4898803214937</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="13"/>
         <v>2352.3455207578309</v>
       </c>
       <c r="P61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1787.3650561966156</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1447.2090766436263</v>
       </c>
     </row>
@@ -7759,54 +7745,54 @@
         <v>3600</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26.748905352409263</v>
       </c>
       <c r="C62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>43.135225304811485</v>
       </c>
       <c r="D62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>65.286583248974836</v>
       </c>
       <c r="E62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>91.823245392289792</v>
       </c>
       <c r="G62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>120.84828404312239</v>
       </c>
       <c r="I62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>149.25279524983921</v>
       </c>
       <c r="K62">
         <v>62</v>
       </c>
       <c r="L62">
+        <f t="shared" si="19"/>
+        <v>8344.266692763802</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="14"/>
+        <v>5174.4252736081871</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="15"/>
+        <v>3418.7728763322102</v>
+      </c>
+      <c r="O62">
         <f t="shared" si="16"/>
-        <v>8344.266692763802</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="11"/>
-        <v>5174.4252736081871</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="12"/>
-        <v>3418.7728763322102</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="13"/>
         <v>2430.7570381164251</v>
       </c>
       <c r="P62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1846.9438914031696</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1495.4493791984139</v>
       </c>
     </row>
@@ -7815,54 +7801,54 @@
         <v>3700</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>27.491930501087303</v>
       </c>
       <c r="C63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>44.333426007722913</v>
       </c>
       <c r="D63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>67.10009945033525</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>94.373891097631173</v>
       </c>
       <c r="G63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>124.20518082209801</v>
       </c>
       <c r="I63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>153.39870622900139</v>
       </c>
       <c r="K63">
         <v>64</v>
       </c>
       <c r="L63">
+        <f t="shared" si="19"/>
+        <v>8613.436586078762</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="14"/>
+        <v>5341.3422179181298</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="15"/>
+        <v>3529.0558723429267</v>
+      </c>
+      <c r="O63">
         <f t="shared" si="16"/>
-        <v>8613.436586078762</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="11"/>
-        <v>5341.3422179181298</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="12"/>
-        <v>3529.0558723429267</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="13"/>
         <v>2509.1685554750197</v>
       </c>
       <c r="P63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1906.5227266097231</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1543.6896817532013</v>
       </c>
     </row>
@@ -7871,54 +7857,54 @@
         <v>3800</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28.234955649765336</v>
       </c>
       <c r="C64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45.531626710634349</v>
       </c>
       <c r="D64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>68.913615651695665</v>
       </c>
       <c r="E64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>96.924536802972554</v>
       </c>
       <c r="G64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>127.56207760107363</v>
       </c>
       <c r="I64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>157.5446172081636</v>
       </c>
       <c r="K64">
         <v>66</v>
       </c>
       <c r="L64">
+        <f t="shared" si="19"/>
+        <v>8882.6064793937239</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="14"/>
+        <v>5508.2591622280706</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="15"/>
+        <v>3639.3388683536427</v>
+      </c>
+      <c r="O64">
         <f t="shared" si="16"/>
-        <v>8882.6064793937239</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="11"/>
-        <v>5508.2591622280706</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="12"/>
-        <v>3639.3388683536427</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="13"/>
         <v>2587.5800728336139</v>
       </c>
       <c r="P64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1966.1015618162769</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1591.9299843079889</v>
       </c>
     </row>
@@ -7927,54 +7913,54 @@
         <v>3900</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28.977980798443372</v>
       </c>
       <c r="C65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>46.729827413545785</v>
       </c>
       <c r="D65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70.727131853056065</v>
       </c>
       <c r="E65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>99.475182508313949</v>
       </c>
       <c r="G65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>130.91897438004926</v>
       </c>
       <c r="I65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>161.69052818732581</v>
       </c>
       <c r="K65">
         <v>68</v>
       </c>
       <c r="L65">
+        <f t="shared" si="19"/>
+        <v>9151.776372708684</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="14"/>
+        <v>5675.1761065380124</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="15"/>
+        <v>3749.6218643643597</v>
+      </c>
+      <c r="O65">
         <f t="shared" si="16"/>
-        <v>9151.776372708684</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="11"/>
-        <v>5675.1761065380124</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="12"/>
-        <v>3749.6218643643597</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="13"/>
         <v>2665.9915901922082</v>
       </c>
       <c r="P65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2025.6803970228309</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1640.1702868627765</v>
       </c>
     </row>
@@ -7983,54 +7969,54 @@
         <v>4000</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>29.721005947121405</v>
       </c>
       <c r="C66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>47.928028116457206</v>
       </c>
       <c r="D66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>72.540648054416494</v>
       </c>
       <c r="E66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>102.02582821365532</v>
       </c>
       <c r="G66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>134.27587115902489</v>
       </c>
       <c r="I66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>165.83643916648802</v>
       </c>
       <c r="K66">
         <v>70</v>
       </c>
       <c r="L66">
+        <f t="shared" si="19"/>
+        <v>9420.9462660236477</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="14"/>
+        <v>5842.0930508479532</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="15"/>
+        <v>3859.9048603750762</v>
+      </c>
+      <c r="O66">
         <f t="shared" si="16"/>
-        <v>9420.9462660236477</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="11"/>
-        <v>5842.0930508479532</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="12"/>
-        <v>3859.9048603750762</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="13"/>
         <v>2744.4031075508028</v>
       </c>
       <c r="P66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2085.2592322293845</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1688.4105894175639</v>
       </c>
     </row>
@@ -8039,54 +8025,54 @@
         <v>4100</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30.464031095799445</v>
       </c>
       <c r="C67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>49.126228819368635</v>
       </c>
       <c r="D67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74.354164255776894</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>104.57647391899671</v>
       </c>
       <c r="G67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>137.63276793800051</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>169.9823501456502</v>
       </c>
       <c r="K67">
         <v>72</v>
       </c>
       <c r="L67">
+        <f t="shared" si="19"/>
+        <v>9690.1161593386096</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="14"/>
+        <v>6009.009995157895</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="15"/>
+        <v>3970.1878563857927</v>
+      </c>
+      <c r="O67">
         <f t="shared" si="16"/>
-        <v>9690.1161593386096</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="11"/>
-        <v>6009.009995157895</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="12"/>
-        <v>3970.1878563857927</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="13"/>
         <v>2822.814624909397</v>
       </c>
       <c r="P67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2144.8380674359382</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1736.6508919723515</v>
       </c>
     </row>
@@ -8095,54 +8081,54 @@
         <v>4200</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31.207056244477474</v>
       </c>
       <c r="C68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50.324429522280063</v>
       </c>
       <c r="D68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>76.167680457137308</v>
       </c>
       <c r="E68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>107.12711962433808</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>140.98966471697611</v>
       </c>
       <c r="I68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>174.12826112481238</v>
       </c>
       <c r="K68">
         <v>74</v>
       </c>
       <c r="L68">
+        <f t="shared" si="19"/>
+        <v>9959.2860526535696</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="14"/>
+        <v>6175.9269394678377</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="15"/>
+        <v>4080.4708523965091</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="16"/>
-        <v>9959.2860526535696</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="11"/>
-        <v>6175.9269394678377</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="12"/>
-        <v>4080.4708523965091</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="13"/>
         <v>2901.2261422679917</v>
       </c>
       <c r="P68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2204.4169026424925</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1784.8911945271391</v>
       </c>
     </row>
@@ -8151,54 +8137,54 @@
         <v>4300</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>31.950081393155507</v>
       </c>
       <c r="C69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>51.522630225191499</v>
       </c>
       <c r="D69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>77.981196658497723</v>
       </c>
       <c r="E69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>109.67776532967947</v>
       </c>
       <c r="G69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>144.34656149595176</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>178.27417210397462</v>
       </c>
       <c r="K69">
         <v>76</v>
       </c>
       <c r="L69">
+        <f t="shared" si="19"/>
+        <v>10228.455945968532</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="14"/>
+        <v>6342.8438837777785</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="15"/>
+        <v>4190.7538484072256</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="16"/>
-        <v>10228.455945968532</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="11"/>
-        <v>6342.8438837777785</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="12"/>
-        <v>4190.7538484072256</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="13"/>
         <v>2979.6376596265859</v>
       </c>
       <c r="P69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2263.9957378490462</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1833.1314970819267</v>
       </c>
     </row>
@@ -8207,54 +8193,54 @@
         <v>4400</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32.693106541833544</v>
       </c>
       <c r="C70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>52.720830928102934</v>
       </c>
       <c r="D70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79.794712859858137</v>
       </c>
       <c r="E70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>112.22841103502086</v>
       </c>
       <c r="G70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>147.70345827492739</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>182.4200830831368</v>
       </c>
       <c r="K70">
         <v>78</v>
       </c>
       <c r="L70">
+        <f t="shared" si="19"/>
+        <v>10497.625839283492</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="14"/>
+        <v>6509.7608280877203</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="15"/>
+        <v>4301.0368444179421</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="16"/>
-        <v>10497.625839283492</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="11"/>
-        <v>6509.7608280877203</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="12"/>
-        <v>4301.0368444179421</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="13"/>
         <v>3058.0491769851801</v>
       </c>
       <c r="P70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2323.5745730556</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1881.3717996367143</v>
       </c>
     </row>
@@ -8263,54 +8249,54 @@
         <v>4500</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33.436131690511587</v>
       </c>
       <c r="C71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>53.919031631014356</v>
       </c>
       <c r="D71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.608229061218537</v>
       </c>
       <c r="E71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>114.77905674036224</v>
       </c>
       <c r="G71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>151.06035505390298</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>186.56599406229901</v>
       </c>
       <c r="K71">
         <v>80</v>
       </c>
       <c r="L71">
+        <f t="shared" si="19"/>
+        <v>10766.795732598455</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="14"/>
+        <v>6676.6777723976611</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="15"/>
+        <v>4411.3198404286586</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="16"/>
-        <v>10766.795732598455</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="11"/>
-        <v>6676.6777723976611</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="12"/>
-        <v>4411.3198404286586</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="13"/>
         <v>3136.4606943437743</v>
       </c>
       <c r="P71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2383.1534082621538</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1929.6121021915019</v>
       </c>
     </row>
@@ -8319,54 +8305,54 @@
         <v>4600</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34.179156839189616</v>
       </c>
       <c r="C72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>55.117232333925791</v>
       </c>
       <c r="D72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.421745262578966</v>
       </c>
       <c r="E72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>117.32970244570362</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>154.41725183287861</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>190.71190504146119</v>
       </c>
       <c r="K72">
         <v>82</v>
       </c>
       <c r="L72">
+        <f t="shared" si="19"/>
+        <v>11035.965625913415</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="14"/>
+        <v>6843.5947167076038</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="15"/>
+        <v>4521.6028364393742</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="16"/>
-        <v>11035.965625913415</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="11"/>
-        <v>6843.5947167076038</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="12"/>
-        <v>4521.6028364393742</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="13"/>
         <v>3214.8722117023685</v>
       </c>
       <c r="P72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2442.732243468708</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1977.8524047462893</v>
       </c>
     </row>
@@ -8375,54 +8361,54 @@
         <v>4700</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>34.922181987867653</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>56.31543303683722</v>
       </c>
       <c r="D73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85.235261463939366</v>
       </c>
       <c r="E73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>119.88034815104501</v>
       </c>
       <c r="G73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>157.77414861185426</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>194.8578160206234</v>
       </c>
       <c r="K73">
         <v>84</v>
       </c>
       <c r="L73">
+        <f t="shared" si="19"/>
+        <v>11305.135519228375</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="14"/>
+        <v>7010.5116610175446</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="15"/>
+        <v>4631.8858324500916</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="16"/>
-        <v>11305.135519228375</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="11"/>
-        <v>7010.5116610175446</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="12"/>
-        <v>4631.8858324500916</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="13"/>
         <v>3293.2837290609627</v>
       </c>
       <c r="P73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2502.3110786752613</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2026.0927073010766</v>
       </c>
     </row>
@@ -8431,54 +8417,54 @@
         <v>4800</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35.665207136545682</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>57.513633739748656</v>
       </c>
       <c r="D74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.048777665299781</v>
       </c>
       <c r="E74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>122.43099385638638</v>
       </c>
       <c r="G74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>161.13104539082985</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>199.00372699978561</v>
       </c>
       <c r="K74">
         <v>86</v>
       </c>
       <c r="L74">
+        <f t="shared" si="19"/>
+        <v>11574.305412543335</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="14"/>
+        <v>7177.4286053274864</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="15"/>
+        <v>4742.1688284608081</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="16"/>
-        <v>11574.305412543335</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="11"/>
-        <v>7177.4286053274864</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="12"/>
-        <v>4742.1688284608081</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="13"/>
         <v>3371.6952464195574</v>
       </c>
       <c r="P74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2561.8899138818156</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2074.3330098558645</v>
       </c>
     </row>
@@ -8487,54 +8473,54 @@
         <v>4900</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36.408232285223725</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>58.711834442660077</v>
       </c>
       <c r="D75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>88.862293866660195</v>
       </c>
       <c r="E75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>124.98163956172776</v>
       </c>
       <c r="G75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>164.48794216980548</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>203.14963797894779</v>
       </c>
       <c r="K75">
         <v>88</v>
       </c>
       <c r="L75">
+        <f t="shared" si="19"/>
+        <v>11843.475305858297</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="14"/>
+        <v>7344.3455496374272</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="15"/>
+        <v>4852.4518244715246</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="16"/>
-        <v>11843.475305858297</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="11"/>
-        <v>7344.3455496374272</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="12"/>
-        <v>4852.4518244715246</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="13"/>
         <v>3450.1067637781516</v>
       </c>
       <c r="P75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2621.4687490883693</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2122.5733124106519</v>
       </c>
     </row>
@@ -8543,54 +8529,54 @@
         <v>5000</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>37.151257433901762</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>59.910035145571513</v>
       </c>
       <c r="D76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90.67581006802061</v>
       </c>
       <c r="E76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>127.53228526706917</v>
       </c>
       <c r="G76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>167.8448389487811</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>207.29554895811</v>
       </c>
       <c r="K76">
         <v>90</v>
       </c>
       <c r="L76">
+        <f t="shared" si="19"/>
+        <v>12112.645199173257</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="14"/>
+        <v>7511.2624939473699</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="15"/>
+        <v>4962.7348204822401</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="16"/>
-        <v>12112.645199173257</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="11"/>
-        <v>7511.2624939473699</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="12"/>
-        <v>4962.7348204822401</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="13"/>
         <v>3528.5182811367463</v>
       </c>
       <c r="P76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2681.0475842949231</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2170.8136149654392</v>
       </c>
     </row>
@@ -8599,54 +8585,54 @@
         <v>5100</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>37.894282582579791</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>61.108235848482941</v>
       </c>
       <c r="D77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92.489326269381024</v>
       </c>
       <c r="E77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>130.08293097241054</v>
       </c>
       <c r="G77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>171.20173572775673</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>211.44145993727219</v>
       </c>
       <c r="K77">
         <v>92</v>
       </c>
       <c r="L77">
+        <f t="shared" si="19"/>
+        <v>12381.815092488221</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="14"/>
+        <v>7678.1794382573116</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="15"/>
+        <v>5073.0178164929575</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="16"/>
-        <v>12381.815092488221</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="11"/>
-        <v>7678.1794382573116</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="12"/>
-        <v>5073.0178164929575</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="13"/>
         <v>3606.92979849534</v>
       </c>
       <c r="P77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2740.6264195014769</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2219.0539175202271</v>
       </c>
     </row>
@@ -8655,54 +8641,54 @@
         <v>5200</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>38.63730773125782</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>62.30643655139437</v>
       </c>
       <c r="D78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>94.302842470741439</v>
       </c>
       <c r="E78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>132.6335766777519</v>
       </c>
       <c r="G78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>174.55863250673235</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>215.58737091643442</v>
       </c>
       <c r="K78">
         <v>94</v>
       </c>
       <c r="L78">
+        <f t="shared" si="19"/>
+        <v>12650.984985803183</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="14"/>
+        <v>7845.0963825672525</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="15"/>
+        <v>5183.3008125036731</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="16"/>
-        <v>12650.984985803183</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="11"/>
-        <v>7845.0963825672525</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="12"/>
-        <v>5183.3008125036731</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="13"/>
         <v>3685.3413158539347</v>
       </c>
       <c r="P78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2800.2052547080311</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2267.2942200750144</v>
       </c>
     </row>
@@ -8711,54 +8697,54 @@
         <v>5300</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>39.380332879935864</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>63.504637254305806</v>
       </c>
       <c r="D79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>96.116358672101839</v>
       </c>
       <c r="E79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>135.18422238309327</v>
       </c>
       <c r="G79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>177.91552928570798</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>219.7332818955966</v>
       </c>
       <c r="K79">
         <v>96</v>
       </c>
       <c r="L79">
+        <f t="shared" si="19"/>
+        <v>12920.154879118143</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="14"/>
+        <v>8012.0133268771933</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="15"/>
+        <v>5293.5838085143896</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="16"/>
-        <v>12920.154879118143</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="11"/>
-        <v>8012.0133268771933</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="12"/>
-        <v>5293.5838085143896</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="13"/>
         <v>3763.7528332125289</v>
       </c>
       <c r="P79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2859.7840899145845</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2315.5345226298018</v>
       </c>
     </row>
@@ -8767,54 +8753,54 @@
         <v>5400</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40.1233580286139</v>
       </c>
       <c r="C80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>64.702837957217227</v>
       </c>
       <c r="D80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97.929874873462268</v>
       </c>
       <c r="E80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>137.73486808843469</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>181.27242606468357</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>223.87919287475879</v>
       </c>
       <c r="K80">
         <v>98</v>
       </c>
       <c r="L80">
+        <f t="shared" si="19"/>
+        <v>13189.324772433105</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="14"/>
+        <v>8178.9302711871342</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="15"/>
+        <v>5403.866804525107</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="16"/>
-        <v>13189.324772433105</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="11"/>
-        <v>8178.9302711871342</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="12"/>
-        <v>5403.866804525107</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="13"/>
         <v>3842.1643505711236</v>
       </c>
       <c r="P80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2919.3629251211387</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2363.7748251845896</v>
       </c>
     </row>
@@ -8823,54 +8809,54 @@
         <v>5500</v>
       </c>
       <c r="B81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40.866383177291929</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>65.901038660128648</v>
       </c>
       <c r="D81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>99.743391074822668</v>
       </c>
       <c r="E81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>140.28551379377606</v>
       </c>
       <c r="G81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>184.62932284365922</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>228.025103853921</v>
       </c>
       <c r="K81">
         <v>100</v>
       </c>
       <c r="L81">
+        <f t="shared" si="19"/>
+        <v>13458.494665748065</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="14"/>
+        <v>8345.8472154970768</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="15"/>
+        <v>5514.1498005358217</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="16"/>
-        <v>13458.494665748065</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="11"/>
-        <v>8345.8472154970768</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="12"/>
-        <v>5514.1498005358217</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="13"/>
         <v>3920.5758679297182</v>
       </c>
       <c r="P81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2978.9417603276929</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2412.015127739377</v>
       </c>
     </row>
@@ -8879,54 +8865,54 @@
         <v>5600</v>
       </c>
       <c r="B82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41.609408325969973</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>67.099239363040098</v>
       </c>
       <c r="D82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>101.55690727618308</v>
       </c>
       <c r="E82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>142.83615949911746</v>
       </c>
       <c r="G82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>187.98621962263485</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>232.17101483308318</v>
       </c>
       <c r="K82">
         <v>102</v>
       </c>
       <c r="L82">
+        <f t="shared" si="19"/>
+        <v>13727.664559063029</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="14"/>
+        <v>8512.7641598070168</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="15"/>
+        <v>5624.4327965465391</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="16"/>
-        <v>13727.664559063029</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="11"/>
-        <v>8512.7641598070168</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="12"/>
-        <v>5624.4327965465391</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="13"/>
         <v>3998.987385288312</v>
       </c>
       <c r="P82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3038.5205955342462</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2460.2554302941644</v>
       </c>
     </row>
@@ -8935,54 +8921,54 @@
         <v>5700</v>
       </c>
       <c r="B83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>42.352433474648002</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>68.29744006595152</v>
       </c>
       <c r="D83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>103.3704234775435</v>
       </c>
       <c r="E83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>145.3868052044588</v>
       </c>
       <c r="G83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>191.34311640161044</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>236.31692581224542</v>
       </c>
       <c r="K83">
         <v>104</v>
       </c>
       <c r="L83">
+        <f t="shared" si="19"/>
+        <v>13996.834452377989</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="14"/>
+        <v>8679.6811041169603</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="15"/>
+        <v>5734.7157925572556</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="16"/>
-        <v>13996.834452377989</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="11"/>
-        <v>8679.6811041169603</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="12"/>
-        <v>5734.7157925572556</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="13"/>
         <v>4077.3989026469067</v>
       </c>
       <c r="P83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3098.0994307408005</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2508.4957328489522</v>
       </c>
     </row>
@@ -8991,54 +8977,54 @@
         <v>5800</v>
       </c>
       <c r="B84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>43.095458623326039</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>69.495640768862955</v>
       </c>
       <c r="D84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>105.18393967890391</v>
       </c>
       <c r="E84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>147.93745090980022</v>
       </c>
       <c r="G84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>194.70001318058607</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>240.46283679140763</v>
       </c>
       <c r="K84">
         <v>106</v>
       </c>
       <c r="L84">
+        <f t="shared" si="19"/>
+        <v>14266.004345692951</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="14"/>
+        <v>8846.5980484269021</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="15"/>
+        <v>5844.998788567972</v>
+      </c>
+      <c r="O84">
         <f t="shared" si="16"/>
-        <v>14266.004345692951</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="11"/>
-        <v>8846.5980484269021</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="12"/>
-        <v>5844.998788567972</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="13"/>
         <v>4155.8104200055004</v>
       </c>
       <c r="P84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3157.6782659473542</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2556.7360354037396</v>
       </c>
     </row>
@@ -9047,54 +9033,54 @@
         <v>5900</v>
       </c>
       <c r="B85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>43.838483772004068</v>
       </c>
       <c r="C85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70.693841471774377</v>
       </c>
       <c r="D85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>106.99745588026431</v>
       </c>
       <c r="E85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>150.48809661514159</v>
       </c>
       <c r="G85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>198.05690995956172</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>244.60874777056981</v>
       </c>
       <c r="K85">
         <v>108</v>
       </c>
       <c r="L85">
+        <f t="shared" si="19"/>
+        <v>14535.174239007911</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="14"/>
+        <v>9013.514992736842</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="15"/>
+        <v>5955.2817845786885</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="16"/>
-        <v>14535.174239007911</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="11"/>
-        <v>9013.514992736842</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="12"/>
-        <v>5955.2817845786885</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="13"/>
         <v>4234.2219373640955</v>
       </c>
       <c r="P85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3217.257101153908</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2604.9763379585274</v>
       </c>
     </row>
@@ -9103,54 +9089,54 @@
         <v>6000</v>
       </c>
       <c r="B86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44.581508920682111</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>71.892042174685812</v>
       </c>
       <c r="D86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>108.81097208162474</v>
       </c>
       <c r="E86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>153.03874232048298</v>
       </c>
       <c r="G86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>201.41380673853732</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>248.75465874973196</v>
       </c>
       <c r="K86">
         <v>110</v>
       </c>
       <c r="L86">
+        <f t="shared" si="19"/>
+        <v>14804.344132322873</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="14"/>
+        <v>9180.4319370467856</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="15"/>
+        <v>6065.5647805894059</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="16"/>
-        <v>14804.344132322873</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="11"/>
-        <v>9180.4319370467856</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="12"/>
-        <v>6065.5647805894059</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="13"/>
         <v>4312.6334547226897</v>
       </c>
       <c r="P86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3276.8359363604618</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2653.2166405133153</v>
       </c>
     </row>
@@ -9159,54 +9145,54 @@
         <v>6100</v>
       </c>
       <c r="B87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45.324534069360148</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>73.090242877597248</v>
       </c>
       <c r="D87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>110.62448828298514</v>
       </c>
       <c r="E87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>155.58938802582435</v>
       </c>
       <c r="G87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>204.77070351751294</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>252.9005697288942</v>
       </c>
       <c r="K87">
         <v>112</v>
       </c>
       <c r="L87">
+        <f t="shared" si="19"/>
+        <v>15073.514025637833</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="14"/>
+        <v>9347.3488813567274</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="15"/>
+        <v>6175.8477766001206</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="16"/>
-        <v>15073.514025637833</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="11"/>
-        <v>9347.3488813567274</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="12"/>
-        <v>6175.8477766001206</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="13"/>
         <v>4391.0449720812849</v>
       </c>
       <c r="P87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3336.414771567016</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2701.4569430681026</v>
       </c>
     </row>
@@ -9215,54 +9201,54 @@
         <v>6200</v>
       </c>
       <c r="B88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.067559218038177</v>
       </c>
       <c r="C88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>74.28844358050867</v>
       </c>
       <c r="D88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>112.43800448434556</v>
       </c>
       <c r="E88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>158.14003373116574</v>
       </c>
       <c r="G88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>208.12760029648857</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>257.04648070805644</v>
       </c>
       <c r="K88">
         <v>114</v>
       </c>
       <c r="L88">
+        <f t="shared" si="19"/>
+        <v>15342.683918952796</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="14"/>
+        <v>9514.2658256666673</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="15"/>
+        <v>6286.130772610838</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="16"/>
-        <v>15342.683918952796</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="11"/>
-        <v>9514.2658256666673</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="12"/>
-        <v>6286.130772610838</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="13"/>
         <v>4469.4564894398782</v>
       </c>
       <c r="P88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3395.9936067735694</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2749.69724562289</v>
       </c>
     </row>
@@ -9271,54 +9257,54 @@
         <v>6300</v>
       </c>
       <c r="B89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.810584366716213</v>
       </c>
       <c r="C89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>75.486644283420105</v>
       </c>
       <c r="D89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>114.25152068570597</v>
       </c>
       <c r="E89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>160.69067943650711</v>
       </c>
       <c r="G89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>211.48449707546419</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>261.19239168721862</v>
       </c>
       <c r="K89">
         <v>116</v>
       </c>
       <c r="L89">
+        <f t="shared" si="19"/>
+        <v>15611.853812267758</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="14"/>
+        <v>9681.1827699766091</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="15"/>
+        <v>6396.4137686215545</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="16"/>
-        <v>15611.853812267758</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="11"/>
-        <v>9681.1827699766091</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="12"/>
-        <v>6396.4137686215545</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="13"/>
         <v>4547.8680067984724</v>
       </c>
       <c r="P89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3455.5724419801236</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2797.9375481776779</v>
       </c>
     </row>
@@ -9327,54 +9313,54 @@
         <v>6400</v>
       </c>
       <c r="B90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>47.55360951539425</v>
       </c>
       <c r="C90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>76.684844986331527</v>
       </c>
       <c r="D90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>116.06503688706638</v>
       </c>
       <c r="E90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>163.24132514184851</v>
       </c>
       <c r="G90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>214.84139385443981</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>265.3383026663808</v>
       </c>
       <c r="K90">
         <v>118</v>
       </c>
       <c r="L90">
+        <f t="shared" si="19"/>
+        <v>15881.023705582718</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="14"/>
+        <v>9848.0997142865508</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="15"/>
+        <v>6506.6967646322719</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="16"/>
-        <v>15881.023705582718</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="11"/>
-        <v>9848.0997142865508</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="12"/>
-        <v>6506.6967646322719</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="13"/>
         <v>4626.2795241570675</v>
       </c>
       <c r="P90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3515.1512771866774</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2846.1778507324652</v>
       </c>
     </row>
@@ -9383,54 +9369,54 @@
         <v>6500</v>
       </c>
       <c r="B91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>48.296634664072286</v>
       </c>
       <c r="C91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>77.883045689242962</v>
       </c>
       <c r="D91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>117.87855308842678</v>
       </c>
       <c r="E91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>165.79197084718987</v>
       </c>
       <c r="G91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>218.19829063341544</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>269.48421364554304</v>
       </c>
       <c r="K91">
         <v>120</v>
       </c>
       <c r="L91">
+        <f t="shared" si="19"/>
+        <v>16150.19359889768</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="14"/>
+        <v>10015.016658596493</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="15"/>
+        <v>6616.9797606429875</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="16"/>
-        <v>16150.19359889768</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="11"/>
-        <v>10015.016658596493</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="12"/>
-        <v>6616.9797606429875</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="13"/>
         <v>4704.6910415156617</v>
       </c>
       <c r="P91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3574.7301123932311</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2894.4181532872526</v>
       </c>
     </row>
@@ -9439,54 +9425,54 @@
         <v>6600</v>
       </c>
       <c r="B92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>49.039659812750315</v>
       </c>
       <c r="C92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>79.081246392154398</v>
       </c>
       <c r="D92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>119.69206928978721</v>
       </c>
       <c r="E92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>168.3426165525313</v>
       </c>
       <c r="G92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>221.55518741239104</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>273.63012462470522</v>
       </c>
       <c r="K92">
         <v>122</v>
       </c>
       <c r="L92">
+        <f t="shared" si="19"/>
+        <v>16419.36349221264</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="14"/>
+        <v>10181.933602906434</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="15"/>
+        <v>6727.2627566537039</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="16"/>
-        <v>16419.36349221264</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="11"/>
-        <v>10181.933602906434</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="12"/>
-        <v>6727.2627566537039</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="13"/>
         <v>4783.1025588742568</v>
       </c>
       <c r="P92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3634.3089475997849</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2942.6584558420404</v>
       </c>
     </row>
@@ -9495,54 +9481,54 @@
         <v>6700</v>
       </c>
       <c r="B93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>49.782684961428359</v>
       </c>
       <c r="C93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80.279447095065819</v>
       </c>
       <c r="D93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>121.50558549114761</v>
       </c>
       <c r="E93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>170.89326225787266</v>
       </c>
       <c r="G93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>224.91208419136669</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>277.7760356038674</v>
       </c>
       <c r="K93">
         <v>124</v>
       </c>
       <c r="L93">
+        <f t="shared" si="19"/>
+        <v>16688.533385527604</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="14"/>
+        <v>10348.850547216374</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="15"/>
+        <v>6837.5457526644204</v>
+      </c>
+      <c r="O93">
         <f t="shared" si="16"/>
-        <v>16688.533385527604</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="11"/>
-        <v>10348.850547216374</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="12"/>
-        <v>6837.5457526644204</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="13"/>
         <v>4861.5140762328501</v>
       </c>
       <c r="P93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3693.8877828063391</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2990.8987583968278</v>
       </c>
     </row>
@@ -9551,54 +9537,54 @@
         <v>6800</v>
       </c>
       <c r="B94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>50.525710110106388</v>
       </c>
       <c r="C94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>81.477647797977255</v>
       </c>
       <c r="D94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123.31910169250804</v>
       </c>
       <c r="E94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>173.44390796321403</v>
       </c>
       <c r="G94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>228.26898097034231</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>281.92194658302964</v>
       </c>
       <c r="K94">
         <v>126</v>
       </c>
       <c r="L94">
+        <f t="shared" si="19"/>
+        <v>16957.703278842564</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="14"/>
+        <v>10515.767491526318</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="15"/>
+        <v>6947.8287486751369</v>
+      </c>
+      <c r="O94">
         <f t="shared" si="16"/>
-        <v>16957.703278842564</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="11"/>
-        <v>10515.767491526318</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="12"/>
-        <v>6947.8287486751369</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="13"/>
         <v>4939.9255935914443</v>
       </c>
       <c r="P94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3753.4666180128925</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3039.1390609516152</v>
       </c>
     </row>
@@ -9607,54 +9593,54 @@
         <v>6900</v>
       </c>
       <c r="B95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>51.268735258784425</v>
       </c>
       <c r="C95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>82.675848500888691</v>
       </c>
       <c r="D95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>125.13261789386844</v>
       </c>
       <c r="E95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>175.9945536685554</v>
       </c>
       <c r="G95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>231.62587774931791</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>286.06785756219182</v>
       </c>
       <c r="K95">
         <v>128</v>
       </c>
       <c r="L95">
+        <f t="shared" si="19"/>
+        <v>17226.873172157524</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="14"/>
+        <v>10682.68443583626</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="15"/>
+        <v>7058.1117446858534</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="16"/>
-        <v>17226.873172157524</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="11"/>
-        <v>10682.68443583626</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="12"/>
-        <v>7058.1117446858534</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="13"/>
         <v>5018.3371109500395</v>
       </c>
       <c r="P95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3813.0454532194462</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3087.3793635064026</v>
       </c>
     </row>
@@ -9663,54 +9649,54 @@
         <v>7000</v>
       </c>
       <c r="B96">
-        <f t="shared" ref="B96:B101" si="17">$A96/$E$4/1000*60</f>
+        <f t="shared" ref="B96:B101" si="20">$A96/$E$4/1000*60</f>
         <v>52.011760407462461</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:C101" si="18">$A96/$E$5/1000*60</f>
+        <f t="shared" ref="C96:C101" si="21">$A96/$E$5/1000*60</f>
         <v>83.874049203800112</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96:D101" si="19">$A96/$E$6/1000*60</f>
+        <f t="shared" ref="D96:D101" si="22">$A96/$E$6/1000*60</f>
         <v>126.94613409522884</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96:E101" si="20">$A96/$E$7/1000*60</f>
+        <f t="shared" ref="E96:E101" si="23">$A96/$E$7/1000*60</f>
         <v>178.54519937389682</v>
       </c>
       <c r="G96">
-        <f t="shared" ref="G96:G101" si="21">$A96/$E$8/1000*60</f>
+        <f t="shared" ref="G96:G101" si="24">$A96/$E$8/1000*60</f>
         <v>234.98277452829353</v>
       </c>
       <c r="I96">
-        <f t="shared" ref="I96:I101" si="22">$A96/$E$9/1000*60</f>
+        <f t="shared" ref="I96:I101" si="25">$A96/$E$9/1000*60</f>
         <v>290.21376854135406</v>
       </c>
       <c r="K96">
         <v>130</v>
       </c>
       <c r="L96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17496.043065472488</v>
       </c>
       <c r="M96">
-        <f t="shared" ref="M96:M126" si="23">$K96*$E$5*1000/60</f>
+        <f t="shared" ref="M96:M126" si="26">$K96*$E$5*1000/60</f>
         <v>10849.6013801462</v>
       </c>
       <c r="N96">
-        <f t="shared" ref="N96:N126" si="24">$K96*$E$6*1000/60</f>
+        <f t="shared" ref="N96:N126" si="27">$K96*$E$6*1000/60</f>
         <v>7168.3947406965699</v>
       </c>
       <c r="O96">
-        <f t="shared" ref="O96:O126" si="25">$K96*$E$7*1000/60</f>
+        <f t="shared" ref="O96:O126" si="28">$K96*$E$7*1000/60</f>
         <v>5096.7486283086337</v>
       </c>
       <c r="P96">
-        <f t="shared" ref="P96:P126" si="26">$K96*$E$8*1000/60</f>
+        <f t="shared" ref="P96:P126" si="29">$K96*$E$8*1000/60</f>
         <v>3872.624288426</v>
       </c>
       <c r="Q96">
-        <f t="shared" ref="Q96:Q126" si="27">$K96*$E$9*1000/60</f>
+        <f t="shared" ref="Q96:Q126" si="30">$K96*$E$9*1000/60</f>
         <v>3135.6196660611904</v>
       </c>
     </row>
@@ -9719,54 +9705,54 @@
         <v>7100</v>
       </c>
       <c r="B97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>52.754785556140497</v>
       </c>
       <c r="C97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>85.072249906711548</v>
       </c>
       <c r="D97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>128.75965029658926</v>
       </c>
       <c r="E97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>181.09584507923819</v>
       </c>
       <c r="G97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>238.33967130726919</v>
       </c>
       <c r="I97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>294.35967952051624</v>
       </c>
       <c r="K97">
         <v>132</v>
       </c>
       <c r="L97">
-        <f t="shared" ref="L97:L126" si="28">$K97*$E$4*1000/60</f>
+        <f t="shared" ref="L97:L126" si="31">$K97*$E$4*1000/60</f>
         <v>17765.212958787448</v>
       </c>
       <c r="M97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>11016.518324456141</v>
       </c>
       <c r="N97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7278.6777367072855</v>
       </c>
       <c r="O97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5175.1601456672279</v>
       </c>
       <c r="P97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3932.2031236325538</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3183.8599686159778</v>
       </c>
     </row>
@@ -9775,54 +9761,54 @@
         <v>7200</v>
       </c>
       <c r="B98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>53.497810704818527</v>
       </c>
       <c r="C98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>86.270450609622969</v>
       </c>
       <c r="D98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>130.57316649794967</v>
       </c>
       <c r="E98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>183.64649078457958</v>
       </c>
       <c r="G98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>241.69656808624478</v>
       </c>
       <c r="I98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>298.50559049967842</v>
       </c>
       <c r="K98">
         <v>134</v>
       </c>
       <c r="L98">
+        <f t="shared" si="31"/>
+        <v>18034.382852102408</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="26"/>
+        <v>11183.435268766081</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="27"/>
+        <v>7388.960732718002</v>
+      </c>
+      <c r="O98">
         <f t="shared" si="28"/>
-        <v>18034.382852102408</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="23"/>
-        <v>11183.435268766081</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="24"/>
-        <v>7388.960732718002</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="25"/>
         <v>5253.5716630258221</v>
       </c>
       <c r="P98">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3991.7819588391076</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3232.1002711707652</v>
       </c>
     </row>
@@ -9831,54 +9817,54 @@
         <v>7300</v>
       </c>
       <c r="B99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>54.240835853496563</v>
       </c>
       <c r="C99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>87.468651312534405</v>
       </c>
       <c r="D99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>132.38668269931011</v>
       </c>
       <c r="E99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>186.19713648992095</v>
       </c>
       <c r="G99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>245.05346486522038</v>
       </c>
       <c r="I99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>302.6515014788406</v>
       </c>
       <c r="K99">
         <v>136</v>
       </c>
       <c r="L99">
+        <f t="shared" si="31"/>
+        <v>18303.552745417368</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="26"/>
+        <v>11350.352213076025</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="27"/>
+        <v>7499.2437287287194</v>
+      </c>
+      <c r="O99">
         <f t="shared" si="28"/>
-        <v>18303.552745417368</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="23"/>
-        <v>11350.352213076025</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="24"/>
-        <v>7499.2437287287194</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="25"/>
         <v>5331.9831803844163</v>
       </c>
       <c r="P99">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4051.3607940456618</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3280.340573725553</v>
       </c>
     </row>
@@ -9887,54 +9873,54 @@
         <v>7400</v>
       </c>
       <c r="B100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>54.983861002174606</v>
       </c>
       <c r="C100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>88.666852015445826</v>
       </c>
       <c r="D100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>134.2001989006705</v>
       </c>
       <c r="E100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>188.74778219526235</v>
       </c>
       <c r="G100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>248.41036164419603</v>
       </c>
       <c r="I100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>306.79741245800278</v>
       </c>
       <c r="K100">
         <v>138</v>
       </c>
       <c r="L100">
+        <f t="shared" si="31"/>
+        <v>18572.722638732332</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="26"/>
+        <v>11517.269157385967</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="27"/>
+        <v>7609.5267247394349</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="28"/>
-        <v>18572.722638732332</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="23"/>
-        <v>11517.269157385967</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="24"/>
-        <v>7609.5267247394349</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="25"/>
         <v>5410.3946977430114</v>
       </c>
       <c r="P100">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4110.9396292522151</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3328.5808762803404</v>
       </c>
     </row>
@@ -9943,54 +9929,54 @@
         <v>7500</v>
       </c>
       <c r="B101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>55.726886150852636</v>
       </c>
       <c r="C101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>89.865052718357262</v>
       </c>
       <c r="D101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>136.01371510203089</v>
       </c>
       <c r="E101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>191.29842790060371</v>
       </c>
       <c r="G101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>251.76725842317165</v>
       </c>
       <c r="I101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>310.94332343716502</v>
       </c>
       <c r="K101">
         <v>140</v>
       </c>
       <c r="L101">
+        <f t="shared" si="31"/>
+        <v>18841.892532047295</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="26"/>
+        <v>11684.186101695906</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="27"/>
+        <v>7719.8097207501523</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="28"/>
-        <v>18841.892532047295</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="23"/>
-        <v>11684.186101695906</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="24"/>
-        <v>7719.8097207501523</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="25"/>
         <v>5488.8062151016056</v>
       </c>
       <c r="P101">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4170.5184644587689</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3376.8211788351277</v>
       </c>
     </row>
@@ -9999,27 +9985,27 @@
         <v>142</v>
       </c>
       <c r="L102">
+        <f t="shared" si="31"/>
+        <v>19111.062425362255</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="26"/>
+        <v>11851.103046005848</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="27"/>
+        <v>7830.0927167608688</v>
+      </c>
+      <c r="O102">
         <f t="shared" si="28"/>
-        <v>19111.062425362255</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="23"/>
-        <v>11851.103046005848</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="24"/>
-        <v>7830.0927167608688</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="25"/>
         <v>5567.2177324601998</v>
       </c>
       <c r="P102">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4230.0972996653236</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3425.0614813899156</v>
       </c>
     </row>
@@ -10028,27 +10014,27 @@
         <v>144</v>
       </c>
       <c r="L103">
+        <f t="shared" si="31"/>
+        <v>19380.232318677219</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="26"/>
+        <v>12018.01999031579</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="27"/>
+        <v>7940.3757127715853</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="28"/>
-        <v>19380.232318677219</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="23"/>
-        <v>12018.01999031579</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="24"/>
-        <v>7940.3757127715853</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="25"/>
         <v>5645.6292498187941</v>
       </c>
       <c r="P103">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4289.6761348718765</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3473.3017839447029</v>
       </c>
     </row>
@@ -10057,27 +10043,27 @@
         <v>146</v>
       </c>
       <c r="L104">
+        <f t="shared" si="31"/>
+        <v>19649.402211992179</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="26"/>
+        <v>12184.936934625732</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="27"/>
+        <v>8050.6587087823009</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="28"/>
-        <v>19649.402211992179</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="23"/>
-        <v>12184.936934625732</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="24"/>
-        <v>8050.6587087823009</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="25"/>
         <v>5724.0407671773883</v>
       </c>
       <c r="P104">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4349.2549700784311</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3521.5420864994903</v>
       </c>
     </row>
@@ -10086,27 +10072,27 @@
         <v>148</v>
       </c>
       <c r="L105">
+        <f t="shared" si="31"/>
+        <v>19918.572105307139</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="26"/>
+        <v>12351.853878935675</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="27"/>
+        <v>8160.9417047930183</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="28"/>
-        <v>19918.572105307139</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="23"/>
-        <v>12351.853878935675</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="24"/>
-        <v>8160.9417047930183</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="25"/>
         <v>5802.4522845359834</v>
       </c>
       <c r="P105">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4408.8338052849849</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3569.7823890542782</v>
       </c>
     </row>
@@ -10115,27 +10101,27 @@
         <v>150</v>
       </c>
       <c r="L106">
+        <f t="shared" si="31"/>
+        <v>20187.741998622099</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="26"/>
+        <v>12518.770823245613</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="27"/>
+        <v>8271.2247008037339</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="28"/>
-        <v>20187.741998622099</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="23"/>
-        <v>12518.770823245613</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="24"/>
-        <v>8271.2247008037339</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="25"/>
         <v>5880.8638018945776</v>
       </c>
       <c r="P106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4468.4126404915396</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3618.022691609066</v>
       </c>
     </row>
@@ -10144,27 +10130,27 @@
         <v>152</v>
       </c>
       <c r="L107">
+        <f t="shared" si="31"/>
+        <v>20456.911891937063</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="26"/>
+        <v>12685.687767555557</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="27"/>
+        <v>8381.5076968144513</v>
+      </c>
+      <c r="O107">
         <f t="shared" si="28"/>
-        <v>20456.911891937063</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="23"/>
-        <v>12685.687767555557</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="24"/>
-        <v>8381.5076968144513</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="25"/>
         <v>5959.2753192531718</v>
       </c>
       <c r="P107">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4527.9914756980925</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3666.2629941638534</v>
       </c>
     </row>
@@ -10173,27 +10159,27 @@
         <v>154</v>
       </c>
       <c r="L108">
+        <f t="shared" si="31"/>
+        <v>20726.081785252023</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="26"/>
+        <v>12852.604711865499</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="27"/>
+        <v>8491.7906928251668</v>
+      </c>
+      <c r="O108">
         <f t="shared" si="28"/>
-        <v>20726.081785252023</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="23"/>
-        <v>12852.604711865499</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="24"/>
-        <v>8491.7906928251668</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="25"/>
         <v>6037.686836611766</v>
       </c>
       <c r="P108">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4587.5703109046462</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3714.5032967186412</v>
       </c>
     </row>
@@ -10202,27 +10188,27 @@
         <v>156</v>
       </c>
       <c r="L109">
+        <f t="shared" si="31"/>
+        <v>20995.251678566983</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="26"/>
+        <v>13019.521656175441</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="27"/>
+        <v>8602.0736888358842</v>
+      </c>
+      <c r="O109">
         <f t="shared" si="28"/>
-        <v>20995.251678566983</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="23"/>
-        <v>13019.521656175441</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="24"/>
-        <v>8602.0736888358842</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="25"/>
         <v>6116.0983539703602</v>
       </c>
       <c r="P109">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4647.1491461112</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3762.7435992734286</v>
       </c>
     </row>
@@ -10231,27 +10217,27 @@
         <v>158</v>
       </c>
       <c r="L110">
+        <f t="shared" si="31"/>
+        <v>21264.421571881943</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="26"/>
+        <v>13186.43860048538</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="27"/>
+        <v>8712.3566848465998</v>
+      </c>
+      <c r="O110">
         <f t="shared" si="28"/>
-        <v>21264.421571881943</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="23"/>
-        <v>13186.43860048538</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="24"/>
-        <v>8712.3566848465998</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="25"/>
         <v>6194.5098713289544</v>
       </c>
       <c r="P110">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4706.7279813177547</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3810.9839018282159</v>
       </c>
     </row>
@@ -10260,27 +10246,27 @@
         <v>160</v>
       </c>
       <c r="L111">
+        <f t="shared" si="31"/>
+        <v>21533.591465196911</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="26"/>
+        <v>13353.355544795322</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="27"/>
+        <v>8822.6396808573172</v>
+      </c>
+      <c r="O111">
         <f t="shared" si="28"/>
-        <v>21533.591465196911</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="23"/>
-        <v>13353.355544795322</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="24"/>
-        <v>8822.6396808573172</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="25"/>
         <v>6272.9213886875486</v>
       </c>
       <c r="P111">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4766.3068165243076</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3859.2242043830038</v>
       </c>
     </row>
@@ -10289,27 +10275,27 @@
         <v>162</v>
       </c>
       <c r="L112">
+        <f t="shared" si="31"/>
+        <v>21802.761358511871</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="26"/>
+        <v>13520.272489105264</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="27"/>
+        <v>8932.9226768680328</v>
+      </c>
+      <c r="O112">
         <f t="shared" si="28"/>
-        <v>21802.761358511871</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="23"/>
-        <v>13520.272489105264</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="24"/>
-        <v>8932.9226768680328</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="25"/>
         <v>6351.3329060461429</v>
       </c>
       <c r="P112">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4825.8856517308623</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3907.4645069377907</v>
       </c>
     </row>
@@ -10318,27 +10304,27 @@
         <v>164</v>
       </c>
       <c r="L113">
+        <f t="shared" si="31"/>
+        <v>22071.931251826831</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="26"/>
+        <v>13687.189433415208</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="27"/>
+        <v>9043.2056728787484</v>
+      </c>
+      <c r="O113">
         <f t="shared" si="28"/>
-        <v>22071.931251826831</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="23"/>
-        <v>13687.189433415208</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="24"/>
-        <v>9043.2056728787484</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="25"/>
         <v>6429.7444234047371</v>
       </c>
       <c r="P113">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4885.464486937416</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3955.7048094925785</v>
       </c>
     </row>
@@ -10347,27 +10333,27 @@
         <v>166</v>
       </c>
       <c r="L114">
+        <f t="shared" si="31"/>
+        <v>22341.101145141794</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="26"/>
+        <v>13854.106377725147</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="27"/>
+        <v>9153.4886688894676</v>
+      </c>
+      <c r="O114">
         <f t="shared" si="28"/>
-        <v>22341.101145141794</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="23"/>
-        <v>13854.106377725147</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="24"/>
-        <v>9153.4886688894676</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="25"/>
         <v>6508.1559407633313</v>
       </c>
       <c r="P114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4945.0433221439698</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4003.9451120473664</v>
       </c>
     </row>
@@ -10376,27 +10362,27 @@
         <v>168</v>
       </c>
       <c r="L115">
+        <f t="shared" si="31"/>
+        <v>22610.271038456751</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="26"/>
+        <v>14021.023322035089</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="27"/>
+        <v>9263.7716649001832</v>
+      </c>
+      <c r="O115">
         <f t="shared" si="28"/>
-        <v>22610.271038456751</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="23"/>
-        <v>14021.023322035089</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="24"/>
-        <v>9263.7716649001832</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="25"/>
         <v>6586.5674581219255</v>
       </c>
       <c r="P115">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5004.6221573505227</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4052.1854146021533</v>
       </c>
     </row>
@@ -10405,27 +10391,27 @@
         <v>170</v>
       </c>
       <c r="L116">
+        <f t="shared" si="31"/>
+        <v>22879.440931771711</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="26"/>
+        <v>14187.940266345029</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="27"/>
+        <v>9374.0546609108969</v>
+      </c>
+      <c r="O116">
         <f t="shared" si="28"/>
-        <v>22879.440931771711</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="23"/>
-        <v>14187.940266345029</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="24"/>
-        <v>9374.0546609108969</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="25"/>
         <v>6664.9789754805206</v>
       </c>
       <c r="P116">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5064.2009925570765</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4100.4257171569416</v>
       </c>
     </row>
@@ -10434,27 +10420,27 @@
         <v>172</v>
       </c>
       <c r="L117">
+        <f t="shared" si="31"/>
+        <v>23148.610825086671</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="26"/>
+        <v>14354.857210654973</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="27"/>
+        <v>9484.3376569216161</v>
+      </c>
+      <c r="O117">
         <f t="shared" si="28"/>
-        <v>23148.610825086671</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="23"/>
-        <v>14354.857210654973</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="24"/>
-        <v>9484.3376569216161</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="25"/>
         <v>6743.3904928391148</v>
       </c>
       <c r="P117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5123.7798277636311</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4148.6660197117289</v>
       </c>
     </row>
@@ -10463,27 +10449,27 @@
         <v>174</v>
       </c>
       <c r="L118">
+        <f t="shared" si="31"/>
+        <v>23417.780718401635</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="26"/>
+        <v>14521.774154964914</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="27"/>
+        <v>9594.6206529323317</v>
+      </c>
+      <c r="O118">
         <f t="shared" si="28"/>
-        <v>23417.780718401635</v>
-      </c>
-      <c r="M118">
-        <f t="shared" si="23"/>
-        <v>14521.774154964914</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="24"/>
-        <v>9594.6206529323317</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="25"/>
         <v>6821.8020101977081</v>
       </c>
       <c r="P118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5183.3586629701849</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4196.9063222665163</v>
       </c>
     </row>
@@ -10492,27 +10478,27 @@
         <v>176</v>
       </c>
       <c r="L119">
+        <f t="shared" si="31"/>
+        <v>23686.950611716595</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="26"/>
+        <v>14688.691099274854</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="27"/>
+        <v>9704.9036489430491</v>
+      </c>
+      <c r="O119">
         <f t="shared" si="28"/>
-        <v>23686.950611716595</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="23"/>
-        <v>14688.691099274854</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="24"/>
-        <v>9704.9036489430491</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="25"/>
         <v>6900.2135275563032</v>
       </c>
       <c r="P119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5242.9374981767387</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4245.1466248213037</v>
       </c>
     </row>
@@ -10521,27 +10507,27 @@
         <v>178</v>
       </c>
       <c r="L120">
+        <f t="shared" si="31"/>
+        <v>23956.120505031555</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="26"/>
+        <v>14855.608043584796</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="27"/>
+        <v>9815.1866449537647</v>
+      </c>
+      <c r="O120">
         <f t="shared" si="28"/>
-        <v>23956.120505031555</v>
-      </c>
-      <c r="M120">
-        <f t="shared" si="23"/>
-        <v>14855.608043584796</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="24"/>
-        <v>9815.1866449537647</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="25"/>
         <v>6978.6250449148974</v>
       </c>
       <c r="P120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5302.5163333832916</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4293.3869273760911</v>
       </c>
     </row>
@@ -10550,27 +10536,27 @@
         <v>180</v>
       </c>
       <c r="L121">
+        <f t="shared" si="31"/>
+        <v>24225.290398346515</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="26"/>
+        <v>15022.52498789474</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="27"/>
+        <v>9925.4696409644803</v>
+      </c>
+      <c r="O121">
         <f t="shared" si="28"/>
-        <v>24225.290398346515</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="23"/>
-        <v>15022.52498789474</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="24"/>
-        <v>9925.4696409644803</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="25"/>
         <v>7057.0365622734926</v>
       </c>
       <c r="P121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5362.0951685898463</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4341.6272299308785</v>
       </c>
     </row>
@@ -10579,27 +10565,27 @@
         <v>182</v>
       </c>
       <c r="L122">
+        <f t="shared" si="31"/>
+        <v>24494.460291661482</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="26"/>
+        <v>15189.44193220468</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="27"/>
+        <v>10035.752636975198</v>
+      </c>
+      <c r="O122">
         <f t="shared" si="28"/>
-        <v>24494.460291661482</v>
-      </c>
-      <c r="M122">
-        <f t="shared" si="23"/>
-        <v>15189.44193220468</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="24"/>
-        <v>10035.752636975198</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="25"/>
         <v>7135.4480796320868</v>
       </c>
       <c r="P122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5421.6740037964</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4389.8675324856677</v>
       </c>
     </row>
@@ -10608,27 +10594,27 @@
         <v>184</v>
       </c>
       <c r="L123">
+        <f t="shared" si="31"/>
+        <v>24763.630184976442</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="26"/>
+        <v>15356.358876514623</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="27"/>
+        <v>10146.035632985915</v>
+      </c>
+      <c r="O123">
         <f t="shared" si="28"/>
-        <v>24763.630184976442</v>
-      </c>
-      <c r="M123">
-        <f t="shared" si="23"/>
-        <v>15356.358876514623</v>
-      </c>
-      <c r="N123">
-        <f t="shared" si="24"/>
-        <v>10146.035632985915</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="25"/>
         <v>7213.8595969906801</v>
       </c>
       <c r="P123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5481.2528390029538</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4438.1078350404541</v>
       </c>
     </row>
@@ -10637,27 +10623,27 @@
         <v>186</v>
       </c>
       <c r="L124">
+        <f t="shared" si="31"/>
+        <v>25032.800078291402</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="26"/>
+        <v>15523.275820824561</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="27"/>
+        <v>10256.318628996631</v>
+      </c>
+      <c r="O124">
         <f t="shared" si="28"/>
-        <v>25032.800078291402</v>
-      </c>
-      <c r="M124">
-        <f t="shared" si="23"/>
-        <v>15523.275820824561</v>
-      </c>
-      <c r="N124">
-        <f t="shared" si="24"/>
-        <v>10256.318628996631</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="25"/>
         <v>7292.2711143492752</v>
       </c>
       <c r="P124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5540.8316742095076</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4486.3481375952415</v>
       </c>
     </row>
@@ -10666,27 +10652,27 @@
         <v>188</v>
       </c>
       <c r="L125">
+        <f t="shared" si="31"/>
+        <v>25301.969971606366</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="26"/>
+        <v>15690.192765134505</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="27"/>
+        <v>10366.601625007346</v>
+      </c>
+      <c r="O125">
         <f t="shared" si="28"/>
-        <v>25301.969971606366</v>
-      </c>
-      <c r="M125">
-        <f t="shared" si="23"/>
-        <v>15690.192765134505</v>
-      </c>
-      <c r="N125">
-        <f t="shared" si="24"/>
-        <v>10366.601625007346</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="25"/>
         <v>7370.6826317078694</v>
       </c>
       <c r="P125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5600.4105094160623</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4534.5884401500289</v>
       </c>
     </row>
@@ -10695,27 +10681,27 @@
         <v>190</v>
       </c>
       <c r="L126">
+        <f t="shared" si="31"/>
+        <v>25571.139864921326</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="26"/>
+        <v>15857.109709444447</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="27"/>
+        <v>10476.884621018065</v>
+      </c>
+      <c r="O126">
         <f t="shared" si="28"/>
-        <v>25571.139864921326</v>
-      </c>
-      <c r="M126">
-        <f t="shared" si="23"/>
-        <v>15857.109709444447</v>
-      </c>
-      <c r="N126">
-        <f t="shared" si="24"/>
-        <v>10476.884621018065</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="25"/>
         <v>7449.0941490664645</v>
       </c>
       <c r="P126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5659.9893446226151</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4582.8287427048172</v>
       </c>
     </row>
@@ -11510,7 +11496,7 @@
         <v>192</v>
       </c>
       <c r="BJ4" s="2">
-        <f t="shared" ref="BJ4:BT67" si="3">BJ$2*60/1000/$A4</f>
+        <f t="shared" ref="BJ4:BT39" si="3">BJ$2*60/1000/$A4</f>
         <v>195</v>
       </c>
       <c r="BK4" s="2">
@@ -21914,7 +21900,7 @@
         <v>5.1891891891891895</v>
       </c>
       <c r="BJ40" s="2">
-        <f t="shared" ref="BJ40:BT98" si="13">BJ$2*60/1000/$A40</f>
+        <f t="shared" ref="BJ40:BT76" si="13">BJ$2*60/1000/$A40</f>
         <v>5.2702702702702702</v>
       </c>
       <c r="BK40" s="2">
@@ -32354,7 +32340,7 @@
         <v>3</v>
       </c>
       <c r="BS76" s="2">
-        <f t="shared" ref="BS76:BT80" si="24">BS$2*60/1000/$A76</f>
+        <f t="shared" ref="BS76:BT76" si="24">BS$2*60/1000/$A76</f>
         <v>3.0410958904109591</v>
       </c>
       <c r="BT76" s="2">

--- a/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/Fiesta.xlsx
@@ -5562,7 +5562,7 @@
   <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5601,7 +5601,7 @@
         <v>110</v>
       </c>
       <c r="L2">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="L4">
         <f>L$2*E4*1000/60</f>
-        <v>17496.043065472488</v>
+        <v>6729.2473328740325</v>
       </c>
       <c r="M4">
         <f>L4*60/1000/L$2</f>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L9" si="6">L$2*E5*1000/60</f>
-        <v>10849.6013801462</v>
+        <v>4172.9236077485384</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M9" si="7">L5*60/1000/L$2</f>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>7168.3947406965699</v>
+        <v>2757.0749002679108</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>5096.7486283086337</v>
+        <v>1960.2879339648591</v>
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
@@ -5870,11 +5870,11 @@
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3872.624288426</v>
+        <v>1489.4708801638465</v>
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>1.7873650561966155</v>
+        <v>1.7873650561966157</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5917,11 +5917,11 @@
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>3135.6196660611904</v>
+        <v>1206.0075638696885</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>1.4472090766436263</v>
+        <v>1.4472090766436265</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
